--- a/biology/Histoire de la zoologie et de la botanique/Yves_Delange/Yves_Delange.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Yves_Delange/Yves_Delange.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yves Delange, né à Rouen[1] le 26 mai 1929 et mort à Fontainebleau le 26 novembre 2019[2], est un botaniste et auteur français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yves Delange, né à Rouen le 26 mai 1929 et mort à Fontainebleau le 26 novembre 2019, est un botaniste et auteur français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît à Rouen, fils de Jean Fortuné Félix Delange (1891-1959) et Nelly Georgina Mallon (1896-1978). 
-Yves Delange vécut pendant son enfance et son adolescence à Rouen, où il accomplit des études secondaires au lycée Corneille. Ses matières privilégiées étaient la littérature et les sciences naturelles. Dès l’âge de quatorze ans, il fut membre de la Société des amis du muséum de sa ville natale. Il fut aussi membre de la Société des Amis du Muséum national d'histoire naturelle[3]. Malgré de sérieuses difficultés de santé, il intégra l’École nationale supérieure d'horticulture de Versailles, où il obtint le diplôme d’ingénieur en 1953. Pendant ses années d’études, il accomplit des stages dans le midi de la France, en Algérie et au Maroc.
+Yves Delange vécut pendant son enfance et son adolescence à Rouen, où il accomplit des études secondaires au lycée Corneille. Ses matières privilégiées étaient la littérature et les sciences naturelles. Dès l’âge de quatorze ans, il fut membre de la Société des amis du muséum de sa ville natale. Il fut aussi membre de la Société des Amis du Muséum national d'histoire naturelle. Malgré de sérieuses difficultés de santé, il intégra l’École nationale supérieure d'horticulture de Versailles, où il obtint le diplôme d’ingénieur en 1953. Pendant ses années d’études, il accomplit des stages dans le midi de la France, en Algérie et au Maroc.
 Tôt séduit par les écrits du naturaliste Jean-Henri Fabre, épris de botanique et d’entomologie, il décida, dès la fin de ses études supérieures, de vivre sous un climat ensoleillé et il obtint en 1954 le poste d’adjoint à la direction du Jardin des plantes de Montpellier. Celui-ci, avec celui de Paris (le Muséum national d'histoire naturelle), constitue en France métropolitaine l’un des deux hauts lieux de la botanique. Là, il se consacra pendant 17 ans à la restauration, à la mise en valeur et à l’enrichissement des collections de cet établissement scientifique et historique qui avait été mis à mal par les troupes d’occupation pendant la Seconde Guerre mondiale. Bénéficiant de l’enseignement naturaliste de H. Harant, professeur de parasitologie et de matière médicale, directeur de ce Jardin, il approfondit ses connaissances en botanique, accomplit de nombreuses études sur le terrain et suivit également les cours de Louis Emberger, directeur de l’Institut Botanique. Pendant quelques années, il dispensa des cours au Collège agricole féminin de Castelnau-le-Lez (Hérault).
 En 1971, il se présenta à un concours et intégra à Paris la chaire de biologie végétale du Muséum national d’histoire naturelle, au titre d’assistant chargé de la conservation des collections végétales tropicales. Nommé maître de conférences en 1983, il devait jusqu’à la fin de sa carrière, en 1994, avoir également la responsabilité du Jardin botanique exotique, antenne du Muséum national à Menton-Garavan.
 Durant toute sa carrière, Yves Delange participa à diverses activités en faveur de la protection et de la conservation de la nature, ce qui le conduisit à publier en 2009 Plaidoyer pour les sciences naturelles chez L’Harmattan. Pendant son long séjour au Muséum et en vue d’enrichir les collections botaniques de cet établissement, il visita en Europe quantité de parcs naturels et de jardins botaniques. Il fit de nombreuses recherches dans les domaines de la botanique tropicale et accomplit diverses missions, notamment en Crète, en Afrique australe, en Namibie, en Égypte, aux Antilles et au Mexique. Poursuivant ses activités après avoir cessé ses fonctions d’enseignant-chercheur, il a fait alors des séjours en Inde et en Australie.
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aux éditions de l’Harmattan
 Plaidoyer pour les sciences naturelles. Dès l’enfance, faire aimer la nature et la vie. Introduction de Richard Moreau, 2009.
